--- a/templates/template_objects.xlsx
+++ b/templates/template_objects.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13188" windowHeight="9060"/>
+    <workbookView windowWidth="28800" windowHeight="11460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,12 +27,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Отчет по объемам по объектам</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Данные для отчета - это все shift report details за период </t>
   </si>
   <si>
     <t>за период с {{ date_from }} по {{ date_to }}</t>
@@ -47,65 +44,25 @@
     <t>{% for obj in objects %}</t>
   </si>
   <si>
-    <r>
-      <t>{{ obj.name }}</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> object.name</t>
-    </r>
+    <t>{{ obj.name }}</t>
   </si>
   <si>
     <t>{% for project in obj.projects %}</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">{{ project.name }} </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Наименование спецификации project.name</t>
-    </r>
+    <t>{{ project.name }}</t>
   </si>
   <si>
     <t>{% for detail in project.project_details %}</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">{{ project_detail.name }}  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Наименование записи сецификации project_details.name</t>
-    </r>
+    <t>{{ detail.name }}</t>
   </si>
   <si>
-    <t>{{ project_detail.quantity }}</t>
+    <t>{{ detail.quantity }}</t>
   </si>
   <si>
     <t>{% endfor %}</t>
-  </si>
-  <si>
-    <t>// количество суммированное по всем записям отчетов по смене за период по записи спецификации</t>
   </si>
 </sst>
 </file>
@@ -118,7 +75,7 @@
     <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,14 +248,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -859,7 +808,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -878,9 +827,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -910,55 +856,55 @@
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Запятая" xfId="1" builtinId="3"/>
-    <cellStyle name="Денежный" xfId="2" builtinId="4"/>
-    <cellStyle name="Процент" xfId="3" builtinId="5"/>
-    <cellStyle name="Запятая [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Денежный [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Гиперссылка" xfId="6" builtinId="8"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="7" builtinId="9"/>
-    <cellStyle name="Примечание" xfId="8" builtinId="10"/>
-    <cellStyle name="Предупреждающий текст" xfId="9" builtinId="11"/>
-    <cellStyle name="Заголовок" xfId="10" builtinId="15"/>
-    <cellStyle name="Пояснительный текст" xfId="11" builtinId="53"/>
-    <cellStyle name="Заголовок 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Заголовок 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Заголовок 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Заголовок 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Ввод" xfId="16" builtinId="20"/>
-    <cellStyle name="Вывод" xfId="17" builtinId="21"/>
-    <cellStyle name="Вычисление" xfId="18" builtinId="22"/>
-    <cellStyle name="Проверить ячейку" xfId="19" builtinId="23"/>
-    <cellStyle name="Связанная ячейка" xfId="20" builtinId="24"/>
-    <cellStyle name="Итого" xfId="21" builtinId="25"/>
-    <cellStyle name="Хороший" xfId="22" builtinId="26"/>
-    <cellStyle name="Плохой" xfId="23" builtinId="27"/>
-    <cellStyle name="Нейтральный" xfId="24" builtinId="28"/>
-    <cellStyle name="Акцент1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% — Акцент1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% — Акцент1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% — Акцент1" xfId="28" builtinId="32"/>
-    <cellStyle name="Акцент2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% — Акцент2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% — Акцент2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% — Акцент2" xfId="32" builtinId="36"/>
-    <cellStyle name="Акцент3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% — Акцент3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% — Акцент3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% — Акцент3" xfId="36" builtinId="40"/>
-    <cellStyle name="Акцент4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% — Акцент4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% — Акцент4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% — Акцент4" xfId="40" builtinId="44"/>
-    <cellStyle name="Акцент5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% — Акцент5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% — Акцент5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% — Акцент5" xfId="44" builtinId="48"/>
-    <cellStyle name="Акцент6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% — Акцент6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% — Акцент6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% — Акцент6" xfId="48" builtinId="52"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
@@ -1444,32 +1390,30 @@
   <dimension ref="B2:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:E3"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="3.28703703703704" customWidth="1"/>
+    <col min="2" max="2" width="3.28571428571429" customWidth="1"/>
     <col min="3" max="3" width="3" customWidth="1"/>
-    <col min="4" max="4" width="51.287037037037" customWidth="1"/>
-    <col min="5" max="5" width="13.8611111111111" customWidth="1"/>
+    <col min="4" max="4" width="51.2857142857143" customWidth="1"/>
+    <col min="5" max="5" width="13.8571428571429" customWidth="1"/>
     <col min="6" max="6" width="29.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="15.6" spans="2:7">
+    <row r="2" ht="15.75" spans="2:7">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="G2" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="G2" s="2"/>
     </row>
     <row r="3" spans="2:5">
       <c r="B3" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -1477,67 +1421,65 @@
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6"/>
+      <c r="F6" t="s">
         <v>6</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="7"/>
-      <c r="F6" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="8"/>
-      <c r="C7" s="9" t="s">
+      <c r="B7" s="7"/>
+      <c r="C7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="10"/>
+      <c r="F7" t="s">
         <v>8</v>
-      </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="8" ht="46" customHeight="1" spans="2:7">
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14" t="s">
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="G8" s="2"/>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="12"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="10"/>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="6:6">
       <c r="F10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
